--- a/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 81,08</t>
+          <t>20,36; 80,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 45,74</t>
+          <t>7,56; 48,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 33,16</t>
+          <t>2,96; 29,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 37,69</t>
+          <t>9,08; 38,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 21,17</t>
+          <t>3,42; 19,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 55,82</t>
+          <t>11,47; 55,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 36,03</t>
+          <t>10,78; 36,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 19,9</t>
+          <t>5,42; 20,77</t>
         </is>
       </c>
     </row>
@@ -869,22 +869,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,81</t>
+          <t>2,84; 24,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 39,72</t>
+          <t>5,35; 41,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 49,47</t>
+          <t>6,21; 50,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,27</t>
+          <t>0,0; 56,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,03</t>
+          <t>0,0; 38,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,6</t>
+          <t>0,0; 35,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 12,49</t>
+          <t>0,0; 12,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 30,38</t>
+          <t>5,73; 30,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 22,05</t>
+          <t>2,59; 21,73</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 39,02</t>
+          <t>0,0; 37,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 34,47</t>
+          <t>12,76; 35,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 38,89</t>
+          <t>4,09; 35,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 42,95</t>
+          <t>8,86; 42,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 30,72</t>
+          <t>2,18; 33,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 34,07</t>
+          <t>3,92; 32,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 21,51</t>
+          <t>7,25; 20,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 25,6</t>
+          <t>2,5; 24,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 28,87</t>
+          <t>8,01; 30,81</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 53,51</t>
+          <t>10,89; 51,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 17,76</t>
+          <t>2,8; 17,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 31,09</t>
+          <t>4,95; 30,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 70,72</t>
+          <t>18,08; 72,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,4</t>
+          <t>0,0; 13,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 21,97</t>
+          <t>2,31; 20,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,54</t>
+          <t>0,0; 22,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 34,26</t>
+          <t>6,93; 36,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,13</t>
+          <t>3,3; 12,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 19,91</t>
+          <t>4,85; 19,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 48,55</t>
+          <t>11,32; 47,95</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1284,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 75,74</t>
+          <t>11,18; 76,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 61,5</t>
+          <t>8,58; 63,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 57,48</t>
+          <t>8,84; 56,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,02</t>
+          <t>0,0; 51,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,68</t>
+          <t>0,0; 57,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 56,92</t>
+          <t>6,7; 55,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 26,49</t>
+          <t>3,23; 27,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 54,36</t>
+          <t>6,98; 54,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,93</t>
+          <t>0,0; 50,8</t>
         </is>
       </c>
     </row>
@@ -1424,32 +1424,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,89; 91,62</t>
+          <t>25,82; 91,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 39,51</t>
+          <t>9,44; 41,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 33,14</t>
+          <t>3,59; 32,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,24; 46,11</t>
+          <t>12,98; 48,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,21</t>
+          <t>0,0; 48,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 28,26</t>
+          <t>2,76; 27,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,0; 9,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,91; 58,33</t>
+          <t>15,95; 62,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 26,76</t>
+          <t>7,83; 27,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 14,55</t>
+          <t>1,55; 14,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 25,3</t>
+          <t>7,54; 25,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,43; 58,45</t>
+          <t>18,68; 58,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,66; 55,28</t>
+          <t>31,54; 55,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 37,02</t>
+          <t>4,02; 36,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 31,03</t>
+          <t>7,39; 32,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 48,08</t>
+          <t>5,27; 46,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 17,36</t>
+          <t>1,98; 18,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,77</t>
+          <t>0,0; 17,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 19,75</t>
+          <t>4,58; 18,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,62; 47,11</t>
+          <t>18,07; 46,79</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,26; 35,3</t>
+          <t>18,05; 34,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 19,97</t>
+          <t>3,82; 19,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 21,1</t>
+          <t>7,33; 20,26</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,32; 48,82</t>
+          <t>12,86; 47,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,0</t>
+          <t>0,0; 25,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,15</t>
+          <t>0,0; 18,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 51,96</t>
+          <t>12,08; 51,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>0,0; 23,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,53</t>
+          <t>0,0; 36,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,05</t>
+          <t>0,0; 20,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,32; 30,81</t>
+          <t>2,3; 30,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,97; 28,35</t>
+          <t>7,75; 29,11</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 23,47</t>
+          <t>4,1; 24,75</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 13,35</t>
+          <t>1,5; 12,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,69; 32,99</t>
+          <t>9,56; 32,6</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>23,47; 41,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,7</t>
+          <t>16,88; 26,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,34</t>
+          <t>10,64; 20,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,64; 31,44</t>
+          <t>17,13; 30,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,19; 18,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,68; 8,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,24; 11,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,94</t>
+          <t>4,71; 12,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>16,92; 28,33</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,12</t>
+          <t>11,17; 17,06</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,08</t>
+          <t>8,15; 14,95</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,43</t>
+          <t>11,46; 19,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 80,88</t>
+          <t>20,07; 81,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,56; 48,27</t>
+          <t>5,69; 48,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 38,02</t>
+          <t>7,12; 39,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,47; 55,3</t>
+          <t>10,76; 53,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 36,81</t>
+          <t>10,94; 34,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 24,1</t>
+          <t>2,68; 23,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 41,42</t>
+          <t>5,04; 41,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,4</t>
+          <t>0,0; 62,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,32</t>
+          <t>0,0; 39,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,75</t>
+          <t>0,0; 32,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,32</t>
+          <t>1,45; 12,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 30,84</t>
+          <t>5,65; 30,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,39</t>
+          <t>4,71; 40,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 35,81</t>
+          <t>14,15; 35,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 35,2</t>
+          <t>4,04; 40,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 32,34</t>
+          <t>3,96; 33,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 20,67</t>
+          <t>7,08; 20,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 24,3</t>
+          <t>2,55; 25,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,89; 51,56</t>
+          <t>10,68; 51,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 17,66</t>
+          <t>3,75; 18,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 30,24</t>
+          <t>4,95; 28,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,73</t>
+          <t>0,0; 13,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 20,44</t>
+          <t>2,22; 19,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 36,34</t>
+          <t>6,88; 35,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 12,81</t>
+          <t>2,97; 13,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 19,71</t>
+          <t>5,21; 21,83</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 76,09</t>
+          <t>11,91; 75,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 63,31</t>
+          <t>7,7; 60,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,84; 56,07</t>
+          <t>8,85; 56,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,08</t>
+          <t>0,0; 57,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 55,43</t>
+          <t>7,0; 55,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 27,57</t>
+          <t>3,22; 28,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 54,3</t>
+          <t>7,39; 53,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 91,35</t>
+          <t>26,23; 91,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 41,38</t>
+          <t>9,23; 40,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 32,24</t>
+          <t>3,59; 31,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,68</t>
+          <t>0,0; 49,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,76; 27,51</t>
+          <t>2,79; 29,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 62,21</t>
+          <t>16,43; 61,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 27,38</t>
+          <t>8,63; 26,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,17</t>
+          <t>1,57; 14,47</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,68; 58,96</t>
+          <t>21,2; 60,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,54; 55,07</t>
+          <t>30,06; 56,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 36,75</t>
+          <t>4,0; 33,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 46,79</t>
+          <t>8,24; 49,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 18,0</t>
+          <t>1,97; 19,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,6</t>
+          <t>0,0; 20,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,07; 46,79</t>
+          <t>18,24; 48,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,05; 34,54</t>
+          <t>18,67; 34,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,82; 19,73</t>
+          <t>3,76; 19,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,86; 47,71</t>
+          <t>12,48; 48,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,24</t>
+          <t>0,0; 27,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,8</t>
+          <t>0,0; 17,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,13</t>
+          <t>0,0; 21,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,73</t>
+          <t>0,0; 36,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,04</t>
+          <t>0,0; 22,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,75; 29,11</t>
+          <t>7,71; 27,48</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,1; 24,75</t>
+          <t>2,49; 25,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 12,84</t>
+          <t>1,55; 14,26</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>23,47; 41,09</t>
+          <t>23,37; 40,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,88; 26,08</t>
+          <t>16,64; 26,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,64; 20,69</t>
+          <t>10,24; 20,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,19; 18,26</t>
+          <t>5,08; 17,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,95</t>
+          <t>2,9; 9,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,97</t>
+          <t>4,5; 12,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,92; 28,33</t>
+          <t>16,93; 29,15</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,17; 17,06</t>
+          <t>11,0; 17,6</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,95</t>
+          <t>8,22; 14,39</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,07; 81,15</t>
+          <t>20,16; 81,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 48,25</t>
+          <t>5,56; 45,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 29,84</t>
+          <t>3,75; 33,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 39,14</t>
+          <t>8,29; 37,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,42; 19,36</t>
+          <t>3,62; 21,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,76; 53,86</t>
+          <t>11,06; 55,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,94; 34,95</t>
+          <t>12,09; 36,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 20,77</t>
+          <t>5,06; 19,9</t>
         </is>
       </c>
     </row>
@@ -869,22 +869,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 23,44</t>
+          <t>0,0; 21,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 41,21</t>
+          <t>5,23; 39,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 50,79</t>
+          <t>7,68; 49,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,72</t>
+          <t>0,0; 56,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,88</t>
+          <t>0,0; 44,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,27</t>
+          <t>0,0; 34,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 12,23</t>
+          <t>1,47; 12,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 30,45</t>
+          <t>5,57; 30,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 21,73</t>
+          <t>2,47; 22,05</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 40,64</t>
+          <t>4,71; 39,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,15; 35,94</t>
+          <t>12,5; 34,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 40,45</t>
+          <t>4,04; 38,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,86; 42,42</t>
+          <t>9,37; 42,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 33,22</t>
+          <t>2,12; 30,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 33,91</t>
+          <t>3,95; 34,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 20,44</t>
+          <t>8,05; 21,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 25,09</t>
+          <t>2,56; 25,6</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,01; 30,81</t>
+          <t>8,25; 28,87</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 51,08</t>
+          <t>11,41; 53,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 18,16</t>
+          <t>3,43; 17,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 28,26</t>
+          <t>5,08; 31,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,08; 72,13</t>
+          <t>16,02; 70,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,37 +1169,37 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,61</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 19,23</t>
+          <t>2,35; 21,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,04</t>
+          <t>0,0; 18,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 35,68</t>
+          <t>6,62; 34,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 13,27</t>
+          <t>2,89; 13,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 21,83</t>
+          <t>4,87; 19,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 47,95</t>
+          <t>11,69; 48,55</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1284,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 75,81</t>
+          <t>11,19; 75,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,7; 60,08</t>
+          <t>8,17; 61,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 56,9</t>
+          <t>9,0; 57,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,81</t>
+          <t>0,0; 51,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,74</t>
+          <t>0,0; 57,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 55,31</t>
+          <t>7,12; 56,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 28,47</t>
+          <t>3,22; 26,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 53,11</t>
+          <t>6,92; 54,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,8</t>
+          <t>0,0; 51,93</t>
         </is>
       </c>
     </row>
@@ -1424,32 +1424,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,23; 91,68</t>
+          <t>25,89; 91,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 40,65</t>
+          <t>8,66; 39,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 31,24</t>
+          <t>3,63; 33,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 48,33</t>
+          <t>13,24; 46,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,33</t>
+          <t>0,0; 48,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 29,08</t>
+          <t>2,79; 28,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,72</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 61,89</t>
+          <t>13,91; 58,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,63; 26,46</t>
+          <t>8,68; 26,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 14,47</t>
+          <t>1,6; 14,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 25,37</t>
+          <t>7,59; 25,3</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,2; 60,94</t>
+          <t>21,43; 58,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,06; 56,0</t>
+          <t>30,66; 55,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 33,23</t>
+          <t>4,06; 37,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 32,27</t>
+          <t>5,96; 31,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,24; 49,1</t>
+          <t>5,35; 48,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 19,52</t>
+          <t>2,03; 17,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,38</t>
+          <t>0,0; 16,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 18,78</t>
+          <t>5,2; 19,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,24; 48,59</t>
+          <t>19,62; 47,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,67; 34,96</t>
+          <t>19,26; 35,3</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 19,7</t>
+          <t>3,81; 19,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 20,26</t>
+          <t>7,47; 21,1</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,48; 48,64</t>
+          <t>12,32; 48,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,2</t>
+          <t>0,0; 27,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,46</t>
+          <t>0,0; 18,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,08; 51,9</t>
+          <t>10,59; 51,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,05</t>
+          <t>0,0; 23,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,66</t>
+          <t>0,0; 38,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,55</t>
+          <t>0,0; 20,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,3; 30,91</t>
+          <t>2,32; 30,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,71; 27,48</t>
+          <t>7,97; 28,35</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,49; 25,13</t>
+          <t>2,41; 23,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 14,26</t>
+          <t>1,53; 13,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,56; 32,6</t>
+          <t>10,69; 32,99</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>23,37; 40,62</t>
+          <t>24,28; 42,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,64; 26,65</t>
+          <t>17,04; 26,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,6</t>
+          <t>10,14; 20,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,13; 30,42</t>
+          <t>17,64; 31,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,08; 17,85</t>
+          <t>4,76; 18,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,61</t>
+          <t>2,74; 9,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,28</t>
+          <t>4,23; 11,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,0</t>
+          <t>4,81; 11,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16,93; 29,15</t>
+          <t>17,34; 28,92</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,0; 17,6</t>
+          <t>11,15; 17,12</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,39</t>
+          <t>8,42; 15,08</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,46; 19,48</t>
+          <t>11,97; 19,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,92%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 25,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 33,16</t>
+          <t>3,28; 32,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 21,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 21,17</t>
+          <t>3,6; 21,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 18,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 19,9</t>
+          <t>4,91; 20,0</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>23,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,8%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 49,47</t>
+          <t>7,96; 50,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 22,05</t>
+          <t>2,63; 23,49</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 42,95</t>
+          <t>9,31; 42,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 30,72</t>
+          <t>2,15; 31,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 28,87</t>
+          <t>8,51; 29,41</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>43,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>26,25%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 17,76</t>
+          <t>0,0; 18,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,02; 70,72</t>
+          <t>16,08; 70,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,4</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,54</t>
+          <t>0,0; 17,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,13</t>
+          <t>0,0; 14,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 48,55</t>
+          <t>12,06; 49,61</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,02</t>
+          <t>0,0; 51,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,93</t>
+          <t>0,0; 52,56</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,24; 46,11</t>
+          <t>13,36; 47,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,59; 25,3</t>
+          <t>7,75; 26,47</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>13,08%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 31,03</t>
+          <t>6,16; 31,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 19,75</t>
+          <t>5,19; 19,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 21,1</t>
+          <t>7,48; 21,14</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>18,94%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,59; 51,96</t>
+          <t>10,57; 51,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,32; 30,81</t>
+          <t>2,33; 27,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,69; 32,99</t>
+          <t>10,43; 32,02</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,64; 31,44</t>
+          <t>17,31; 30,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,94</t>
+          <t>4,73; 11,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,43</t>
+          <t>11,85; 19,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 81,08</t>
+          <t>20,62; 81,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 25,9</t>
+          <t>2,95; 25,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,56; 45,74</t>
+          <t>5,69; 49,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 32,48</t>
+          <t>3,43; 30,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,69</t>
+          <t>0,0; 23,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 37,69</t>
+          <t>7,35; 39,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 21,02</t>
+          <t>4,62; 20,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,06; 55,82</t>
+          <t>10,61; 50,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 18,63</t>
+          <t>3,63; 18,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,09; 36,03</t>
+          <t>10,91; 34,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 20,0</t>
+          <t>5,51; 20,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,22 +870,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,81</t>
+          <t>2,81; 22,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 39,72</t>
+          <t>5,29; 40,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,96; 50,55</t>
+          <t>5,97; 45,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,27</t>
+          <t>0,0; 56,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,7 +895,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,03</t>
+          <t>0,0; 38,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,29 +905,29 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,6</t>
+          <t>0,0; 33,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 12,49</t>
+          <t>1,48; 11,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 30,38</t>
+          <t>5,66; 29,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 23,49</t>
+          <t>2,74; 23,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 39,02</t>
+          <t>4,7; 42,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,5; 34,47</t>
+          <t>14,18; 36,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 38,89</t>
+          <t>4,04; 36,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,31; 42,65</t>
+          <t>9,12; 43,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 31,16</t>
+          <t>2,21; 32,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 34,07</t>
+          <t>4,06; 33,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,05; 21,51</t>
+          <t>8,0; 21,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 25,6</t>
+          <t>2,55; 25,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 29,41</t>
+          <t>7,22; 28,93</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 53,51</t>
+          <t>10,78; 51,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,45</t>
+          <t>0,0; 22,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 31,09</t>
+          <t>5,11; 32,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,08; 70,78</t>
+          <t>17,92; 70,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,32 +1175,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 21,97</t>
+          <t>2,3; 20,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,97</t>
+          <t>0,0; 21,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 34,26</t>
+          <t>6,99; 37,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,01</t>
+          <t>0,0; 13,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 19,91</t>
+          <t>5,02; 20,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 49,61</t>
+          <t>11,36; 48,94</t>
         </is>
       </c>
     </row>
@@ -1284,27 +1285,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,19; 75,74</t>
+          <t>11,18; 84,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,17; 61,5</t>
+          <t>8,23; 61,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 57,48</t>
+          <t>8,84; 64,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,34</t>
+          <t>0,0; 54,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,68</t>
+          <t>0,0; 57,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1314,7 +1315,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,06</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,29 +1325,29 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,12; 56,92</t>
+          <t>6,44; 54,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 26,49</t>
+          <t>3,12; 28,15</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,92; 54,36</t>
+          <t>6,93; 53,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,56</t>
+          <t>0,0; 50,98</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,32 +1425,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,89; 91,62</t>
+          <t>26,93; 91,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 39,51</t>
+          <t>8,89; 39,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,63; 33,14</t>
+          <t>3,62; 30,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,36; 47,24</t>
+          <t>13,14; 46,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,21</t>
+          <t>0,0; 41,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,79; 28,26</t>
+          <t>2,77; 26,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,34 +1460,34 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,72</t>
+          <t>0,0; 10,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,91; 58,33</t>
+          <t>16,25; 61,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,68; 26,76</t>
+          <t>7,65; 27,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 14,55</t>
+          <t>1,54; 12,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 26,47</t>
+          <t>7,5; 27,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,43; 58,45</t>
+          <t>18,98; 57,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,66; 55,28</t>
+          <t>30,51; 54,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 37,02</t>
+          <t>4,1; 34,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,16; 31,45</t>
+          <t>5,38; 30,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 48,08</t>
+          <t>5,41; 50,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,03; 17,36</t>
+          <t>2,11; 18,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,77</t>
+          <t>0,0; 18,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,19; 19,77</t>
+          <t>4,96; 19,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,62; 47,11</t>
+          <t>19,33; 48,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,26; 35,3</t>
+          <t>19,01; 35,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 19,97</t>
+          <t>3,78; 20,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,48; 21,14</t>
+          <t>7,87; 20,93</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,32; 48,82</t>
+          <t>12,22; 49,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,0</t>
+          <t>0,0; 28,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,15</t>
+          <t>0,0; 17,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,57; 51,81</t>
+          <t>13,03; 51,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>0,0; 24,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,53</t>
+          <t>0,0; 36,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,05</t>
+          <t>0,0; 21,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 27,78</t>
+          <t>2,37; 27,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,97; 28,35</t>
+          <t>7,74; 27,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,41; 23,47</t>
+          <t>2,43; 26,3</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 13,35</t>
+          <t>1,5; 12,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,43; 32,02</t>
+          <t>9,04; 31,18</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>24,11; 41,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,7</t>
+          <t>17,25; 27,12</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,34</t>
+          <t>10,22; 20,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,31; 30,94</t>
+          <t>16,87; 30,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,29; 18,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,72; 9,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,25; 11,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,58</t>
+          <t>4,72; 11,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>17,09; 29,47</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,12</t>
+          <t>11,11; 17,44</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,08</t>
+          <t>8,15; 14,55</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,44</t>
+          <t>12,08; 19,7</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el trabajo en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4755</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4509</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6150</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2908</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4754</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6015</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10660</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6232</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1916; 7556</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1094; 9447</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1093; 9519</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>964; 8700</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1872</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6436</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2219; 12021</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1340; 5847</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1738; 8348</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2347; 12131</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5391; 16907</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3143; 11869</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3067</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5653</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5054</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5653</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>899; 7272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>970; 7420</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1453; 11075</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5055</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6154</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1302</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5568</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>920; 7412</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1938; 9943</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1579; 13633</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12427</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3479</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4831</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3293</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2941</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12427</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3479</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8124</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>858; 7793</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7496; 19055</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>939; 8452</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1945; 9369</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1524</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1750</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>592; 8668</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>911; 7575</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7503; 20214</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>947; 9540</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3474; 13922</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4832</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5480</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10313</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2823</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4832</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8303</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11017</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1920; 9124</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7141</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1961; 12648</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4255; 16828</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1672</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1837</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>836; 7569</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3864</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1929; 10263</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6459</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3756; 15021</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4768; 20538</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3143</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4030</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2836</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4162</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4031</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>818; 6175</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1084; 8134</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>895; 6479</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3847</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4508</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1880</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4533</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 417</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>974; 8250</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1028; 9280</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1016; 7824</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3901</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5961</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7385</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6991</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>10412</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3963</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7928</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2395; 8118</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2699; 11844</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>993; 8242</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3422; 12105</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4352</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>981; 9308</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2108</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2925</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3168; 12078</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5034; 17945</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>983; 8255</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3978; 14415</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10528</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>27954</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6893</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4330</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>4616</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5342</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>14858</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>32570</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5264</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>12235</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5178; 15773</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>20062; 35910</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1084; 9201</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2335; 13411</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>997; 9241</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1240; 10639</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5183</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2483; 9780</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>8832; 21978</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>23647; 43902</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2037; 10781</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>7363; 19578</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>7335</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2982</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>8480</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5381</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>3050</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>10158</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3226; 12953</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6802</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6048</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3262; 12990</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 6701</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 9342</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 5818</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>677; 7993</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4129; 14760</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1196; 12974</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>919; 7818</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>4851; 16726</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>39493</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>62196</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>29542</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>46487</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>13446</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>14118</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>15772</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>48980</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>75642</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>43660</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>62259</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>29670; 51103</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>49496; 77841</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>20213; 40504</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>33598; 60830</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>4963; 17783</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>6941; 23649</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>8146; 22882</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>10073; 25071</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>37066; 63918</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>60244; 94567</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>31716; 56626</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>49842; 81321</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>